--- a/SeniorProject/WoodSaxonParameters.xlsx
+++ b/SeniorProject/WoodSaxonParameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="214">
   <si>
     <t>n</t>
   </si>
@@ -449,13 +449,275 @@
   </si>
   <si>
     <t>2pG</t>
+  </si>
+  <si>
+    <t>Kr73</t>
+  </si>
+  <si>
+    <t>.33-1.42</t>
+  </si>
+  <si>
+    <t>.36-11.5</t>
+  </si>
+  <si>
+    <t>.36-1.18</t>
+  </si>
+  <si>
+    <t>Th72</t>
+  </si>
+  <si>
+    <t>Ho76</t>
+  </si>
+  <si>
+    <t>Si80</t>
+  </si>
+  <si>
+    <t>.22-.71</t>
+  </si>
+  <si>
+    <t>.21-.77</t>
+  </si>
+  <si>
+    <t>.51-2.83</t>
+  </si>
+  <si>
+    <t>.55-4.79</t>
+  </si>
+  <si>
+    <t>.59-4.47</t>
+  </si>
+  <si>
+    <t>.18-10.1</t>
+  </si>
+  <si>
+    <t>.45-1.92</t>
+  </si>
+  <si>
+    <t>.69-2.62</t>
+  </si>
+  <si>
+    <t>Su67</t>
+  </si>
+  <si>
+    <t>.09-.9</t>
+  </si>
+  <si>
+    <t>Bu72</t>
+  </si>
+  <si>
+    <t>Ja72</t>
+  </si>
+  <si>
+    <t>.26-.70</t>
+  </si>
+  <si>
+    <t>.15-.53</t>
+  </si>
+  <si>
+    <t>Fe73a</t>
+  </si>
+  <si>
+    <t>St66b</t>
+  </si>
+  <si>
+    <t>.69-2.81</t>
+  </si>
+  <si>
+    <t>Ri71</t>
+  </si>
+  <si>
+    <t>.61-1.76</t>
+  </si>
+  <si>
+    <t>.10-4.01</t>
+  </si>
+  <si>
+    <t>Ca80a</t>
+  </si>
+  <si>
+    <t>Si82</t>
+  </si>
+  <si>
+    <t>.13-3.70</t>
+  </si>
+  <si>
+    <t>.25-2.75</t>
+  </si>
+  <si>
+    <t>Re82</t>
+  </si>
+  <si>
+    <t>He70a</t>
+  </si>
+  <si>
+    <t>.3-3.4</t>
+  </si>
+  <si>
+    <t>1.04-2.16</t>
+  </si>
+  <si>
+    <t>K173</t>
+  </si>
+  <si>
+    <t>Da70</t>
+  </si>
+  <si>
+    <t>.86-1.62</t>
+  </si>
+  <si>
+    <t>.29-.48</t>
+  </si>
+  <si>
+    <t>Sc75</t>
+  </si>
+  <si>
+    <t>La82</t>
+  </si>
+  <si>
+    <t>.38-2.91</t>
+  </si>
+  <si>
+    <t>Ge72</t>
+  </si>
+  <si>
+    <t>.87-2.61</t>
+  </si>
+  <si>
+    <t>.22-3.17</t>
+  </si>
+  <si>
+    <t>Vr86</t>
+  </si>
+  <si>
+    <t>Si70b</t>
+  </si>
+  <si>
+    <t>1.05-3.97</t>
+  </si>
+  <si>
+    <t>.38-2.85</t>
+  </si>
+  <si>
+    <t>.58-.99</t>
+  </si>
+  <si>
+    <t>Si70a</t>
+  </si>
+  <si>
+    <t>.55-1.01</t>
+  </si>
+  <si>
+    <t>Ha73b</t>
+  </si>
+  <si>
+    <t>Oy75</t>
+  </si>
+  <si>
+    <t>.46-1.79</t>
+  </si>
+  <si>
+    <t>.22-1.04</t>
+  </si>
+  <si>
+    <t>Mo71</t>
+  </si>
+  <si>
+    <t>Kn81</t>
+  </si>
+  <si>
+    <t>.21-1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB </t>
+  </si>
+  <si>
+    <t>Nucleus</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>c or a [fm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">z or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α [fm]</t>
+    </r>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>q-range</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [fm]</t>
+    </r>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +849,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -933,8 +1209,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1277,34 +1559,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="F260" sqref="F257:F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2">
         <v>0.33589999999999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1312,10 +1637,25 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1323,21 +1663,51 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.86199999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2.0950000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1345,109 +1715,220 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>2.1160000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>1.8440000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1.877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1.976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.877</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1.696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.976</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1.6759999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.696</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1.671</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1455,54 +1936,111 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>2.56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>2.39</v>
+      </c>
+      <c r="D19">
+        <v>1.77</v>
+      </c>
+      <c r="E19">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>2.5190000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1510,106 +2048,259 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="D21">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="D22">
+        <v>1.77</v>
+      </c>
+      <c r="E22">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D23">
+        <v>1.71</v>
+      </c>
+      <c r="E23">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
       <c r="C24">
+        <v>2.42</v>
+      </c>
+      <c r="D24">
+        <v>1.69</v>
+      </c>
+      <c r="E24">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>2.472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>2.4710000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.472</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>2.464</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29">
+        <v>2.44</v>
+      </c>
+      <c r="D29">
+        <v>1.635</v>
+      </c>
+      <c r="E29">
+        <v>1.403</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1.73</v>
+      </c>
+      <c r="E30">
+        <v>1.38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1617,120 +2308,282 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.58</v>
+      </c>
+      <c r="D31">
+        <v>1.76</v>
+      </c>
+      <c r="E31">
+        <v>1.234</v>
+      </c>
+      <c r="F31" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
       <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>2.54</v>
+      </c>
+      <c r="D32">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="E32">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>2.524</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2.57</v>
+      </c>
+      <c r="E33">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="F33">
+        <v>-0.18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.65</v>
+      </c>
+      <c r="D34">
+        <v>1.81</v>
+      </c>
+      <c r="E34">
+        <v>1.25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>2.7</v>
+      </c>
+      <c r="D35">
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.498</v>
+      </c>
+      <c r="F35">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G35" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>2.6110000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>2.718</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.73</v>
+      </c>
+      <c r="D37">
+        <v>2.6080000000000001</v>
+      </c>
+      <c r="E37">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F37">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
       <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>2.718</v>
+      </c>
+      <c r="D38">
+        <v>21.832999999999998</v>
+      </c>
+      <c r="E38">
+        <v>1.544</v>
+      </c>
+      <c r="F38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>2.7370000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>2.6619999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="D40">
+        <v>1.798</v>
+      </c>
+      <c r="E40">
+        <v>1.498</v>
+      </c>
+      <c r="F40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
         <v>2.2719999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1.841</v>
+      </c>
+      <c r="E41">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1740,19 +2593,49 @@
       <c r="C42">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>2.59</v>
+      </c>
+      <c r="E42">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>141</v>
       </c>
       <c r="C43">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+      <c r="D43">
+        <v>2.58</v>
+      </c>
+      <c r="E43">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F43" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1760,54 +2643,111 @@
         <v>141</v>
       </c>
       <c r="C44">
-        <v>3.004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.04</v>
+      </c>
+      <c r="D44">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="E44">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F44" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
       <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45">
+        <v>3.004</v>
+      </c>
+      <c r="D45">
+        <v>2.74</v>
+      </c>
+      <c r="E45">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F45" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" t="s">
+        <v>203</v>
+      </c>
+      <c r="H45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
         <v>20</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>2.992</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D46">
+        <v>2.7909999999999999</v>
+      </c>
+      <c r="E46">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>27</v>
       </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46">
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47">
         <v>2.9689999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D47">
+        <v>2.782</v>
+      </c>
+      <c r="E47">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>142</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48">
-        <v>3.0750000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -1815,65 +2755,119 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>2.9849999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="D49">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="E49">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F49">
+        <v>-0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="C50">
+        <v>2.9849999999999999</v>
+      </c>
+      <c r="D50">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="E50">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F50">
+        <v>-0.249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2.98</v>
+      </c>
+      <c r="E51">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="F51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
       <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52">
+        <v>3.11</v>
+      </c>
+      <c r="D52">
+        <v>2.76</v>
+      </c>
+      <c r="E52">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>3.0030000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D53">
+        <v>3.22</v>
+      </c>
+      <c r="E53">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F53">
+        <v>-0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>31</v>
       </c>
-      <c r="B53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53">
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54">
         <v>3.0649999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>3.05</v>
+      </c>
+      <c r="E54">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="F54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>32</v>
       </c>
@@ -1881,109 +2875,199 @@
         <v>141</v>
       </c>
       <c r="C55">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.06</v>
+      </c>
+      <c r="D55">
+        <v>3.07</v>
+      </c>
+      <c r="E55">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>32</v>
       </c>
       <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56">
+        <v>3.05</v>
+      </c>
+      <c r="D56">
+        <v>2.84</v>
+      </c>
+      <c r="E56">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
         <v>5</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57">
-        <v>3.1059999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C58">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="D58">
+        <v>1.95</v>
+      </c>
+      <c r="E58">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
       <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59">
+        <v>3.15</v>
+      </c>
+      <c r="D59">
+        <v>3.14</v>
+      </c>
+      <c r="E59">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="F59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
         <v>20</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>3.0859999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>3.34</v>
+      </c>
+      <c r="E60">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F60">
+        <v>-0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C61">
-        <v>3.0790000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.13</v>
+      </c>
+      <c r="D61">
+        <v>3.17</v>
+      </c>
+      <c r="E61">
+        <v>0.52</v>
+      </c>
+      <c r="F61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
       </c>
       <c r="C62">
-        <v>3.1760000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0790000000000002</v>
+      </c>
+      <c r="D62">
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="E62">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="F62">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
       </c>
       <c r="C63">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1760000000000002</v>
+      </c>
+      <c r="D63">
+        <v>3.2519999999999998</v>
+      </c>
+      <c r="E63">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F63">
+        <v>-7.8E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C64">
-        <v>3.1869999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.19</v>
+      </c>
+      <c r="D64">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="E64">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F64">
+        <v>-0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -1993,30 +3077,57 @@
       <c r="C65">
         <v>3.1869999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>3.2389999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="D66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C67">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="D67">
+        <v>2.54</v>
+      </c>
+      <c r="E67">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="F67">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>37</v>
       </c>
@@ -2024,1550 +3135,3860 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <v>3.2480000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69">
-        <v>3.2810000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2480000000000002</v>
+      </c>
+      <c r="D69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
       <c r="C70">
+        <v>3.2810000000000001</v>
+      </c>
+      <c r="D70" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
         <v>3.278</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>40</v>
-      </c>
-      <c r="B71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71">
-        <v>3.3879999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>41</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
       <c r="C72">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.476</v>
+      </c>
+      <c r="E72">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F72">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
         <v>3.3839999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="D73">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="E73">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F73">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>42</v>
       </c>
-      <c r="B73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>43</v>
-      </c>
       <c r="B74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C74">
+        <v>3.327</v>
+      </c>
+      <c r="D74">
+        <v>3.54</v>
+      </c>
+      <c r="E74">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>3.48</v>
+      </c>
+      <c r="D75">
+        <v>3.73</v>
+      </c>
+      <c r="E75">
+        <v>0.62</v>
+      </c>
+      <c r="F75">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>43</v>
       </c>
       <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76">
+        <v>3.3929999999999998</v>
+      </c>
+      <c r="D76">
+        <v>3.53</v>
+      </c>
+      <c r="E76">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="F76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>3.423</v>
+      </c>
+      <c r="D77" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="C78">
+        <v>3.4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="D79">
+        <v>3.7429999999999999</v>
+      </c>
+      <c r="E79">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F79">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>3.4820000000000002</v>
+      </c>
+      <c r="D80">
+        <v>3.766</v>
+      </c>
+      <c r="E80">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F80">
+        <v>-0.161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
       <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>3.4790000000000001</v>
+      </c>
+      <c r="D81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>3.45</v>
+      </c>
+      <c r="D82" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>46</v>
       </c>
       <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>3.47</v>
+      </c>
+      <c r="D83">
+        <v>3.7368999999999999</v>
+      </c>
+      <c r="E83">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="F83">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="D84" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" t="s">
+        <v>213</v>
+      </c>
+      <c r="F84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C85">
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="D85">
+        <v>3.843</v>
+      </c>
+      <c r="E85">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>3.597</v>
+      </c>
+      <c r="D86" t="s">
+        <v>213</v>
+      </c>
+      <c r="E86" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>3.573</v>
+      </c>
+      <c r="D87" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>49</v>
       </c>
       <c r="B88" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>3.58</v>
+      </c>
+      <c r="D88">
+        <v>3.94</v>
+      </c>
+      <c r="E88">
+        <v>0.505</v>
+      </c>
+      <c r="F88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="D89">
+        <v>3.91</v>
+      </c>
+      <c r="E89">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>50</v>
       </c>
       <c r="B90" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>3.6379999999999999</v>
+      </c>
+      <c r="D90">
+        <v>3.9790000000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.52</v>
+      </c>
+      <c r="F90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>50</v>
       </c>
       <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91">
+        <v>3.7069999999999999</v>
+      </c>
+      <c r="D91">
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="E91">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>51</v>
-      </c>
-      <c r="B92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="D92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>51</v>
       </c>
       <c r="B93" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>3.613</v>
+      </c>
+      <c r="D93">
+        <v>4.01</v>
+      </c>
+      <c r="E93">
+        <v>0.497</v>
+      </c>
+      <c r="F93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>51</v>
       </c>
       <c r="B94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94">
+        <v>3.6840000000000002</v>
+      </c>
+      <c r="D94">
+        <v>3.984</v>
+      </c>
+      <c r="E94">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="F94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C95">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="D95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>52</v>
       </c>
-      <c r="B95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>53</v>
-      </c>
       <c r="B96" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>3.726</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="F96" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>53</v>
       </c>
       <c r="B97" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>3.673</v>
+      </c>
+      <c r="D97">
+        <v>4.0209999999999999</v>
+      </c>
+      <c r="E97">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>53</v>
       </c>
       <c r="B98" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>3.7759999999999998</v>
+      </c>
+      <c r="D98">
+        <v>4.01</v>
+      </c>
+      <c r="E98">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F98" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="D99" t="s">
+        <v>213</v>
+      </c>
+      <c r="E99" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>54</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>55</v>
-      </c>
-      <c r="B100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>3.68</v>
+      </c>
+      <c r="D100">
+        <v>3.89</v>
+      </c>
+      <c r="E100">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>55</v>
       </c>
       <c r="B101" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>3.68</v>
+      </c>
+      <c r="D101">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="E101">
+        <v>2.27</v>
+      </c>
+      <c r="F101">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>55</v>
       </c>
       <c r="B102" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="D102">
+        <v>4.0750000000000002</v>
+      </c>
+      <c r="E102">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C103">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="D103">
+        <v>4.0739999999999998</v>
+      </c>
+      <c r="E103">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="F103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C104">
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="D104">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="E104">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="F104">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>56</v>
       </c>
       <c r="B105" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>3.7210000000000001</v>
+      </c>
+      <c r="D105">
+        <v>4.1059999999999999</v>
+      </c>
+      <c r="E105">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F105" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>3.8010000000000002</v>
+      </c>
+      <c r="D106">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="E106">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>57</v>
       </c>
       <c r="B107" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="D107">
+        <v>4.0270000000000001</v>
+      </c>
+      <c r="E107">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="D108">
+        <v>3.585</v>
+      </c>
+      <c r="E108">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="F108">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C109">
+        <v>3.8</v>
+      </c>
+      <c r="D109">
+        <v>4.08</v>
+      </c>
+      <c r="E109">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F109" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C110">
+        <v>3.7749999999999999</v>
+      </c>
+      <c r="D110">
+        <v>3.6560000000000001</v>
+      </c>
+      <c r="E110">
+        <v>2.339</v>
+      </c>
+      <c r="F110">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C111">
+        <v>3.8639999999999999</v>
+      </c>
+      <c r="D111">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="E111">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>3.7639999999999998</v>
+      </c>
+      <c r="D112">
+        <v>4.3091999999999997</v>
+      </c>
+      <c r="E112">
+        <v>0.51690000000000003</v>
+      </c>
+      <c r="F112">
+        <v>-0.1308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>59</v>
       </c>
       <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>3.7719999999999998</v>
+      </c>
+      <c r="D113" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" t="s">
+        <v>213</v>
+      </c>
+      <c r="F113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>60</v>
-      </c>
-      <c r="B114" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>3.7690000000000001</v>
+      </c>
+      <c r="D114" t="s">
+        <v>213</v>
+      </c>
+      <c r="E114" t="s">
+        <v>213</v>
+      </c>
+      <c r="F114" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>3.7690000000000001</v>
+      </c>
+      <c r="D115">
+        <v>4.4890999999999996</v>
+      </c>
+      <c r="E115">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="F115">
+        <v>-0.26679999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>60</v>
       </c>
       <c r="B116" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116">
+        <v>3.7629999999999999</v>
+      </c>
+      <c r="D116">
+        <v>3.6909999999999998</v>
+      </c>
+      <c r="E116">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="F116">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C117">
+        <v>3.7970000000000002</v>
+      </c>
+      <c r="D117" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117" t="s">
+        <v>213</v>
+      </c>
+      <c r="F117" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>61</v>
-      </c>
-      <c r="B117" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>62</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>3.806</v>
+      </c>
+      <c r="D118">
+        <v>4.4024000000000001</v>
+      </c>
+      <c r="E118">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F118">
+        <v>-0.1983</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="D119">
+        <v>4.4424999999999999</v>
+      </c>
+      <c r="E119">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="F119">
+        <v>-0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C120">
+        <v>3.83</v>
+      </c>
+      <c r="D120">
+        <v>3.742</v>
+      </c>
+      <c r="E120">
+        <v>2.36</v>
+      </c>
+      <c r="F120">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>3.827</v>
+      </c>
+      <c r="D121">
+        <v>4.2619999999999996</v>
+      </c>
+      <c r="E121">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="F121" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>63</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C122">
+        <v>3.907</v>
+      </c>
+      <c r="D122">
+        <v>4.2119999999999997</v>
+      </c>
+      <c r="E122">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>63</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="D123">
+        <v>4.5210999999999997</v>
+      </c>
+      <c r="E123">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="F123">
+        <v>-0.22839999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>3.85</v>
+      </c>
+      <c r="D124">
+        <v>3.8420000000000001</v>
+      </c>
+      <c r="E124">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="F124">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>64</v>
       </c>
       <c r="B125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C125">
+        <v>3.8759999999999999</v>
+      </c>
+      <c r="D125">
+        <v>3.7069999999999999</v>
+      </c>
+      <c r="E125">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="F125">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>64</v>
       </c>
       <c r="B126" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="D126">
+        <v>4.1630000000000003</v>
+      </c>
+      <c r="E126">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F126" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C127">
+        <v>3.9470000000000001</v>
+      </c>
+      <c r="D127">
+        <v>4.218</v>
+      </c>
+      <c r="E127">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F127" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C128">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="D128">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="E128">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="F128">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>65</v>
       </c>
       <c r="B129" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="D129">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="E129">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>3.9540000000000002</v>
+      </c>
+      <c r="D130">
+        <v>4.2519999999999998</v>
+      </c>
+      <c r="E130">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="F130" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>66</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C131">
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="D131">
+        <v>4.2850000000000001</v>
+      </c>
+      <c r="E131">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F131" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C132">
+        <v>3.923</v>
+      </c>
+      <c r="D132">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="E132">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="F132">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B133" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>3.923</v>
+      </c>
+      <c r="D133">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="E133">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F133" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>67</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C134">
+        <v>3.9910000000000001</v>
+      </c>
+      <c r="D134">
+        <v>4.2859999999999996</v>
+      </c>
+      <c r="E134">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>67</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C135">
+        <v>3.931</v>
+      </c>
+      <c r="D135">
+        <v>3.7570000000000001</v>
+      </c>
+      <c r="E135">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="F135">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C136">
+        <v>3.952</v>
+      </c>
+      <c r="D136">
+        <v>3.43</v>
+      </c>
+      <c r="E136">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F136" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>68</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="C137">
+        <v>3.9790000000000001</v>
+      </c>
+      <c r="D137">
+        <v>4.3529999999999998</v>
+      </c>
+      <c r="E137">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F137" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>68</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C138">
+        <v>3.9630000000000001</v>
+      </c>
+      <c r="D138">
+        <v>3.87</v>
+      </c>
+      <c r="E138">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="F138">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B139" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>3.9580000000000002</v>
+      </c>
+      <c r="D139">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="E139">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C140">
+        <v>4.0439999999999996</v>
+      </c>
+      <c r="D140">
+        <v>4.4089999999999998</v>
+      </c>
+      <c r="E140">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>69</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C141">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="D141">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="E141">
+        <v>2.46</v>
+      </c>
+      <c r="F141">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>3.9929999999999999</v>
+      </c>
+      <c r="D142">
+        <v>4.4260000000000002</v>
+      </c>
+      <c r="E142">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="F142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>70</v>
       </c>
       <c r="B143" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143">
+        <v>4.07</v>
+      </c>
+      <c r="D143">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E143">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F143" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>71</v>
-      </c>
-      <c r="B144" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>4.0430000000000001</v>
+      </c>
+      <c r="D144" t="s">
+        <v>213</v>
+      </c>
+      <c r="E144" t="s">
+        <v>213</v>
+      </c>
+      <c r="F144" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>71</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C145">
+        <v>4.05</v>
+      </c>
+      <c r="D145">
+        <v>4.45</v>
+      </c>
+      <c r="E145">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="F145" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D146" t="s">
+        <v>213</v>
+      </c>
+      <c r="E146" t="s">
+        <v>213</v>
+      </c>
+      <c r="F146" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>4.0750000000000002</v>
+      </c>
+      <c r="D147" t="s">
+        <v>213</v>
+      </c>
+      <c r="E147" t="s">
+        <v>213</v>
+      </c>
+      <c r="F147" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B148" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>4.0810000000000004</v>
+      </c>
+      <c r="D148" t="s">
+        <v>213</v>
+      </c>
+      <c r="E148" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C149">
+        <v>4.26</v>
+      </c>
+      <c r="D149">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="E149">
+        <v>2.548</v>
+      </c>
+      <c r="F149">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>74</v>
       </c>
       <c r="B150" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150">
+        <v>4.17</v>
+      </c>
+      <c r="D150">
+        <v>4.83</v>
+      </c>
+      <c r="E150">
+        <v>0.496</v>
+      </c>
+      <c r="F150" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>75</v>
-      </c>
-      <c r="B151" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="D151" t="s">
+        <v>213</v>
+      </c>
+      <c r="E151" t="s">
+        <v>213</v>
+      </c>
+      <c r="F151" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>75</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C152">
+        <v>4.24</v>
+      </c>
+      <c r="D152">
+        <v>4.76</v>
+      </c>
+      <c r="E152">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F152" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C153">
+        <v>4.24</v>
+      </c>
+      <c r="D153">
+        <v>4.45</v>
+      </c>
+      <c r="E153">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="F153">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B154" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C154">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D154">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E154">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="F154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>76</v>
       </c>
       <c r="B155" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>4.274</v>
+      </c>
+      <c r="D155">
+        <v>4.4340000000000002</v>
+      </c>
+      <c r="E155">
+        <v>2.528</v>
+      </c>
+      <c r="F155">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>76</v>
       </c>
       <c r="B156" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156">
+        <v>4.28</v>
+      </c>
+      <c r="D156">
+        <v>4.46</v>
+      </c>
+      <c r="E156">
+        <v>2.569</v>
+      </c>
+      <c r="F156">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>76</v>
+      </c>
+      <c r="B157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="C157">
+        <v>4.258</v>
+      </c>
+      <c r="D157" t="s">
+        <v>213</v>
+      </c>
+      <c r="E157" t="s">
+        <v>213</v>
+      </c>
+      <c r="F157" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>77</v>
-      </c>
-      <c r="B157" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>78</v>
       </c>
       <c r="B158" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>4.3090000000000002</v>
+      </c>
+      <c r="D158">
+        <v>4.3250000000000002</v>
+      </c>
+      <c r="E158">
+        <v>2.5081000000000002</v>
+      </c>
+      <c r="F158">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>78</v>
       </c>
       <c r="B159" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159">
+        <v>4.3</v>
+      </c>
+      <c r="D159">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="E159">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F159">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>78</v>
+      </c>
+      <c r="B160" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>79</v>
-      </c>
-      <c r="B160" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>4.2939999999999996</v>
+      </c>
+      <c r="D160" t="s">
+        <v>213</v>
+      </c>
+      <c r="E160" t="s">
+        <v>213</v>
+      </c>
+      <c r="F160" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>79</v>
       </c>
       <c r="B161" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161">
+        <v>4.3319999999999999</v>
+      </c>
+      <c r="D161">
+        <v>4.4939999999999998</v>
+      </c>
+      <c r="E161">
+        <v>2.585</v>
+      </c>
+      <c r="F161">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>79</v>
+      </c>
+      <c r="B162" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="C162">
+        <v>4.3150000000000004</v>
+      </c>
+      <c r="D162" t="s">
+        <v>213</v>
+      </c>
+      <c r="E162" t="s">
+        <v>213</v>
+      </c>
+      <c r="F162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>80</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>81</v>
-      </c>
-      <c r="B163" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="D163">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="E163">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="F163">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>81</v>
       </c>
       <c r="B164" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D164">
+        <v>4.87</v>
+      </c>
+      <c r="E164">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="F164" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C165">
+        <v>4.3310000000000004</v>
+      </c>
+      <c r="D165">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="E165">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>82</v>
       </c>
       <c r="B166" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>4.28</v>
+      </c>
+      <c r="D166">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E166">
+        <v>2.52</v>
+      </c>
+      <c r="F166">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>82</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C167">
+        <v>4.34</v>
+      </c>
+      <c r="D167">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E167">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="F167">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>4.2939999999999996</v>
+      </c>
+      <c r="D168" t="s">
+        <v>213</v>
+      </c>
+      <c r="E168" t="s">
+        <v>213</v>
+      </c>
+      <c r="F168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>4.3339999999999996</v>
+      </c>
+      <c r="D169" t="s">
+        <v>213</v>
+      </c>
+      <c r="E169" t="s">
+        <v>213</v>
+      </c>
+      <c r="F169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>4.3639999999999999</v>
+      </c>
+      <c r="D170" t="s">
+        <v>213</v>
+      </c>
+      <c r="E170" t="s">
+        <v>213</v>
+      </c>
+      <c r="F170" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="D171" t="s">
+        <v>213</v>
+      </c>
+      <c r="E171" t="s">
+        <v>213</v>
+      </c>
+      <c r="F171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>4.43</v>
+      </c>
+      <c r="D172" t="s">
+        <v>213</v>
+      </c>
+      <c r="E172" t="s">
+        <v>213</v>
+      </c>
+      <c r="F172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>4.4370000000000003</v>
+      </c>
+      <c r="D173" t="s">
+        <v>213</v>
+      </c>
+      <c r="E173" t="s">
+        <v>213</v>
+      </c>
+      <c r="F173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>4.4669999999999996</v>
+      </c>
+      <c r="D174" t="s">
+        <v>213</v>
+      </c>
+      <c r="E174" t="s">
+        <v>213</v>
+      </c>
+      <c r="F174" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B175" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>4.524</v>
+      </c>
+      <c r="D175" t="s">
+        <v>213</v>
+      </c>
+      <c r="E175" t="s">
+        <v>213</v>
+      </c>
+      <c r="F175" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>90</v>
       </c>
       <c r="B176" t="s">
+        <v>141</v>
+      </c>
+      <c r="C176">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="D176">
+        <v>5.3010000000000002</v>
+      </c>
+      <c r="E176">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F176" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C177">
+        <v>4.5410000000000004</v>
+      </c>
+      <c r="D177" t="s">
+        <v>213</v>
+      </c>
+      <c r="E177" t="s">
+        <v>213</v>
+      </c>
+      <c r="F177" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>91</v>
       </c>
-      <c r="B177" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B178" t="s">
+        <v>141</v>
+      </c>
+      <c r="C178">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="D178">
+        <v>5.33</v>
+      </c>
+      <c r="E178">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F178" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>92</v>
       </c>
-      <c r="B178" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>93</v>
-      </c>
       <c r="B179" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="D179">
+        <v>5.38</v>
+      </c>
+      <c r="E179">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F179" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>93</v>
       </c>
       <c r="B180" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>4.6289999999999996</v>
+      </c>
+      <c r="D180">
+        <v>5.4</v>
+      </c>
+      <c r="E180">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="F180" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" t="s">
+        <v>141</v>
+      </c>
+      <c r="C181">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="D181">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="E181">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>94</v>
       </c>
-      <c r="B181" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B182" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="D182">
+        <v>5.42</v>
+      </c>
+      <c r="E182">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F182" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>95</v>
       </c>
-      <c r="B182" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>96</v>
-      </c>
       <c r="B183" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="D183">
+        <v>5.3570000000000002</v>
+      </c>
+      <c r="E183">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F183" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>96</v>
       </c>
       <c r="B184" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C184">
+        <v>4.6550000000000002</v>
+      </c>
+      <c r="D184">
+        <v>5.375</v>
+      </c>
+      <c r="E184">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F184" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B185" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>4.5860000000000003</v>
+      </c>
+      <c r="D185">
+        <v>4.9619999999999997</v>
+      </c>
+      <c r="E185">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="F185">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B186" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>4.6020000000000003</v>
+      </c>
+      <c r="D186">
+        <v>4.9710000000000001</v>
+      </c>
+      <c r="E186">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="F186">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>98</v>
       </c>
       <c r="B187" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C187">
+        <v>4.6189999999999998</v>
+      </c>
+      <c r="D187">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="E187">
+        <v>2.625</v>
+      </c>
+      <c r="F187">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>98</v>
       </c>
       <c r="B188" t="s">
+        <v>141</v>
+      </c>
+      <c r="C188">
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="D188">
+        <v>5.3579999999999997</v>
+      </c>
+      <c r="E188">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F188" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>98</v>
+      </c>
+      <c r="B189" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C189">
+        <v>4.6269999999999998</v>
+      </c>
+      <c r="D189" t="s">
+        <v>213</v>
+      </c>
+      <c r="E189" t="s">
+        <v>213</v>
+      </c>
+      <c r="F189" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>99</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>100</v>
-      </c>
-      <c r="B190" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>4.625</v>
+      </c>
+      <c r="D190">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="E190">
+        <v>2.625</v>
+      </c>
+      <c r="F190">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>100</v>
       </c>
       <c r="B191" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>4.6790000000000003</v>
+      </c>
+      <c r="D191">
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="E191">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F191" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>100</v>
       </c>
       <c r="B192" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C192">
+        <v>4.6760000000000002</v>
+      </c>
+      <c r="D192">
+        <v>5.4420000000000002</v>
+      </c>
+      <c r="E192">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F192" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B193" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="D193">
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="E193">
+        <v>2.6230000000000002</v>
+      </c>
+      <c r="F193">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B194" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C194">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="D194">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E194">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="F194">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>102</v>
       </c>
       <c r="B195" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C195">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D195">
+        <v>5.3150000000000004</v>
+      </c>
+      <c r="E195">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F195" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B196" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="D196">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E196">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="F196">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B197" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C197">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="D197">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="E197">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="F197">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>104</v>
       </c>
       <c r="B198" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C198">
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="D198">
+        <v>5.49</v>
+      </c>
+      <c r="E198">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F198" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>104</v>
       </c>
       <c r="B199" t="s">
+        <v>143</v>
+      </c>
+      <c r="C199">
+        <v>4.67</v>
+      </c>
+      <c r="D199">
+        <v>5.15</v>
+      </c>
+      <c r="E199">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="F199">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>104</v>
+      </c>
+      <c r="B200" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="C200">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="D200" t="s">
+        <v>213</v>
+      </c>
+      <c r="E200" t="s">
+        <v>213</v>
+      </c>
+      <c r="F200" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>105</v>
       </c>
-      <c r="B200" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B201" t="s">
+        <v>141</v>
+      </c>
+      <c r="C201">
+        <v>4.63</v>
+      </c>
+      <c r="D201">
+        <v>5.32</v>
+      </c>
+      <c r="E201">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F201" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>106</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C202">
+        <v>4.8360000000000003</v>
+      </c>
+      <c r="D202">
+        <v>5.3376000000000001</v>
+      </c>
+      <c r="E202">
+        <v>2.6776</v>
+      </c>
+      <c r="F202">
+        <v>0.37490000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>107</v>
       </c>
-      <c r="B202" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>108</v>
-      </c>
       <c r="B203" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C203">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D203">
+        <v>5.71</v>
+      </c>
+      <c r="E203">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F203" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>108</v>
       </c>
       <c r="B204" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C204">
+        <v>4.92</v>
+      </c>
+      <c r="D204">
+        <v>5.6135000000000002</v>
+      </c>
+      <c r="E204">
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="F204">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>108</v>
       </c>
       <c r="B205" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>4.8630000000000004</v>
+      </c>
+      <c r="D205">
+        <v>5.774</v>
+      </c>
+      <c r="E205">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F205" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>108</v>
+      </c>
+      <c r="B206" t="s">
+        <v>141</v>
+      </c>
+      <c r="C206">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="D206">
+        <v>5.8390000000000004</v>
+      </c>
+      <c r="E206">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F206" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>109</v>
       </c>
-      <c r="B206" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>110</v>
-      </c>
       <c r="B207" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>4.9260000000000002</v>
+      </c>
+      <c r="D207">
+        <v>5.6256000000000004</v>
+      </c>
+      <c r="E207">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="F207" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>110</v>
       </c>
       <c r="B208" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>4.97</v>
+      </c>
+      <c r="D208">
+        <v>5.6540999999999997</v>
+      </c>
+      <c r="E208">
+        <v>0.6321</v>
+      </c>
+      <c r="F208" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" t="s">
+        <v>141</v>
+      </c>
+      <c r="C209">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="D209">
+        <v>5.867</v>
+      </c>
+      <c r="E209">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F209" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>111</v>
       </c>
-      <c r="B209" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>112</v>
-      </c>
       <c r="B210" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>5.0019999999999998</v>
+      </c>
+      <c r="D210">
+        <v>5.6703000000000001</v>
+      </c>
+      <c r="E210">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>112</v>
       </c>
       <c r="B211" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>5.048</v>
+      </c>
+      <c r="D211">
+        <v>5.7184999999999997</v>
+      </c>
+      <c r="E211">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="F211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>112</v>
       </c>
       <c r="B212" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="D212">
+        <v>5.8650000000000002</v>
+      </c>
+      <c r="E212">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>112</v>
+      </c>
+      <c r="B213" t="s">
+        <v>141</v>
+      </c>
+      <c r="C213">
+        <v>4.9480000000000004</v>
+      </c>
+      <c r="D213">
+        <v>5.8949999999999996</v>
+      </c>
+      <c r="E213">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>113</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>114</v>
-      </c>
-      <c r="B214" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="D214" t="s">
+        <v>213</v>
+      </c>
+      <c r="E214" t="s">
+        <v>213</v>
+      </c>
+      <c r="F214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>114</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C215">
+        <v>4.9889999999999999</v>
+      </c>
+      <c r="D215">
+        <v>5.7709999999999999</v>
+      </c>
+      <c r="E215">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F215" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>114</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>4.976</v>
+      </c>
+      <c r="D216" t="s">
+        <v>213</v>
+      </c>
+      <c r="E216" t="s">
+        <v>213</v>
+      </c>
+      <c r="F216" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>5.0019999999999998</v>
+      </c>
+      <c r="D217" t="s">
+        <v>213</v>
+      </c>
+      <c r="E217" t="s">
+        <v>213</v>
+      </c>
+      <c r="F217" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B218" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>5.0449999999999999</v>
+      </c>
+      <c r="D218" t="s">
+        <v>213</v>
+      </c>
+      <c r="E218" t="s">
+        <v>213</v>
+      </c>
+      <c r="F218" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>116</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C219">
+        <v>5.0922000000000001</v>
+      </c>
+      <c r="D219">
+        <v>5.8044000000000002</v>
+      </c>
+      <c r="E219">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F219" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>116</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>5.0990000000000002</v>
+      </c>
+      <c r="D220" t="s">
+        <v>213</v>
+      </c>
+      <c r="E220" t="s">
+        <v>213</v>
+      </c>
+      <c r="F220" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B221" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>5.093</v>
+      </c>
+      <c r="D221" t="s">
+        <v>213</v>
+      </c>
+      <c r="E221" t="s">
+        <v>213</v>
+      </c>
+      <c r="F221" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>117</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C222">
+        <v>5.1257000000000001</v>
+      </c>
+      <c r="D222">
+        <v>5.9386999999999999</v>
+      </c>
+      <c r="E222">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F222" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>5.1260000000000003</v>
+      </c>
+      <c r="D223" t="s">
+        <v>213</v>
+      </c>
+      <c r="E223" t="s">
+        <v>213</v>
+      </c>
+      <c r="F223" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>5.1239999999999997</v>
+      </c>
+      <c r="D224" t="s">
+        <v>213</v>
+      </c>
+      <c r="E224" t="s">
+        <v>213</v>
+      </c>
+      <c r="F224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>119</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="D225">
+        <v>5.93</v>
+      </c>
+      <c r="E225">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F225" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>120</v>
       </c>
-      <c r="B225" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>121</v>
-      </c>
       <c r="B226" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="D226" t="s">
+        <v>213</v>
+      </c>
+      <c r="E226" t="s">
+        <v>213</v>
+      </c>
+      <c r="F226" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>121</v>
       </c>
       <c r="B227" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>5.23</v>
+      </c>
+      <c r="D227">
+        <v>6.18</v>
+      </c>
+      <c r="E227">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F227" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B228" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>5.19</v>
+      </c>
+      <c r="D228">
+        <v>6.12</v>
+      </c>
+      <c r="E228">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F228" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>122</v>
       </c>
       <c r="B229" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>5.2380000000000004</v>
+      </c>
+      <c r="D229">
+        <v>6.1609999999999996</v>
+      </c>
+      <c r="E229">
+        <v>0.48720000000000002</v>
+      </c>
+      <c r="F229" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>122</v>
       </c>
       <c r="B230" t="s">
+        <v>141</v>
+      </c>
+      <c r="C230">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="D230">
+        <v>6.1859999999999999</v>
+      </c>
+      <c r="E230">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F230" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>122</v>
+      </c>
+      <c r="B231" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="C231">
+        <v>5.2370000000000001</v>
+      </c>
+      <c r="D231">
+        <v>5.98</v>
+      </c>
+      <c r="E231">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F231">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>123</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>124</v>
-      </c>
-      <c r="B232" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>5.41</v>
+      </c>
+      <c r="D232" t="s">
+        <v>213</v>
+      </c>
+      <c r="E232" t="s">
+        <v>213</v>
+      </c>
+      <c r="F232" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>124</v>
       </c>
       <c r="B233" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>5.3150000000000004</v>
+      </c>
+      <c r="D233">
+        <v>6.3305999999999996</v>
+      </c>
+      <c r="E233">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="F233" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>124</v>
+      </c>
+      <c r="B234" t="s">
+        <v>141</v>
+      </c>
+      <c r="C234">
+        <v>5.4429999999999996</v>
+      </c>
+      <c r="D234">
+        <v>6.1269999999999998</v>
+      </c>
+      <c r="E234">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F234" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>125</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="C235">
+        <v>5.37</v>
+      </c>
+      <c r="D235" t="s">
+        <v>213</v>
+      </c>
+      <c r="E235" t="s">
+        <v>213</v>
+      </c>
+      <c r="F235" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>126</v>
       </c>
-      <c r="B235" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="B236" t="s">
+        <v>141</v>
+      </c>
+      <c r="C236">
+        <v>5.48</v>
+      </c>
+      <c r="D236">
+        <v>6.38</v>
+      </c>
+      <c r="E236">
+        <v>0.64</v>
+      </c>
+      <c r="F236" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>127</v>
       </c>
-      <c r="B236" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="B237" t="s">
+        <v>141</v>
+      </c>
+      <c r="C237">
+        <v>5.42</v>
+      </c>
+      <c r="D237">
+        <v>6.51</v>
+      </c>
+      <c r="E237">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F237" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>128</v>
       </c>
-      <c r="B237" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B238" t="s">
+        <v>141</v>
+      </c>
+      <c r="C238">
+        <v>5.4</v>
+      </c>
+      <c r="D238">
+        <v>6.58</v>
+      </c>
+      <c r="E238">
+        <v>0.48</v>
+      </c>
+      <c r="F238" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>129</v>
-      </c>
-      <c r="B238" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>130</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>5.4130000000000003</v>
+      </c>
+      <c r="D239" t="s">
+        <v>213</v>
+      </c>
+      <c r="E239" t="s">
+        <v>213</v>
+      </c>
+      <c r="F239" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>130</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>5.38</v>
+      </c>
+      <c r="D240" t="s">
+        <v>213</v>
+      </c>
+      <c r="E240" t="s">
+        <v>213</v>
+      </c>
+      <c r="F240" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>131</v>
       </c>
-      <c r="B240" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B241" t="s">
+        <v>141</v>
+      </c>
+      <c r="C241">
+        <v>5.33</v>
+      </c>
+      <c r="D241">
+        <v>6.38</v>
+      </c>
+      <c r="E241">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F241" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>132</v>
-      </c>
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>133</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>5.27</v>
+      </c>
+      <c r="D242" t="s">
+        <v>213</v>
+      </c>
+      <c r="E242" t="s">
+        <v>213</v>
+      </c>
+      <c r="F242" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>133</v>
       </c>
       <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>5.4630000000000001</v>
+      </c>
+      <c r="D243" t="s">
+        <v>213</v>
+      </c>
+      <c r="E243" t="s">
+        <v>213</v>
+      </c>
+      <c r="F243" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>133</v>
+      </c>
+      <c r="B244" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="C244">
+        <v>5.47</v>
+      </c>
+      <c r="D244" t="s">
+        <v>213</v>
+      </c>
+      <c r="E244" t="s">
+        <v>213</v>
+      </c>
+      <c r="F244" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>134</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>135</v>
-      </c>
-      <c r="B245" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>5.4790000000000001</v>
+      </c>
+      <c r="D245" t="s">
+        <v>213</v>
+      </c>
+      <c r="E245" t="s">
+        <v>213</v>
+      </c>
+      <c r="F245" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>135</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C246">
+        <v>5.5090000000000003</v>
+      </c>
+      <c r="D246">
+        <v>6.61</v>
+      </c>
+      <c r="E246">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="F246" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>135</v>
       </c>
       <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <v>5.49</v>
+      </c>
+      <c r="D247" t="s">
+        <v>213</v>
+      </c>
+      <c r="E247" t="s">
+        <v>213</v>
+      </c>
+      <c r="F247" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>135</v>
+      </c>
+      <c r="B248" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>136</v>
-      </c>
-      <c r="B248" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>5.49</v>
+      </c>
+      <c r="D248" t="s">
+        <v>213</v>
+      </c>
+      <c r="E248" t="s">
+        <v>213</v>
+      </c>
+      <c r="F248" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>136</v>
       </c>
       <c r="B249" t="s">
+        <v>141</v>
+      </c>
+      <c r="C249">
+        <v>5.5129999999999999</v>
+      </c>
+      <c r="D249">
+        <v>6.62</v>
+      </c>
+      <c r="E249">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F249" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>136</v>
+      </c>
+      <c r="B250" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>137</v>
-      </c>
-      <c r="B250" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>5.4969999999999999</v>
+      </c>
+      <c r="D250" t="s">
+        <v>213</v>
+      </c>
+      <c r="E250" t="s">
+        <v>213</v>
+      </c>
+      <c r="F250" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>137</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C251">
+        <v>5.5030000000000001</v>
+      </c>
+      <c r="D251" t="s">
+        <v>213</v>
+      </c>
+      <c r="E251" t="s">
+        <v>213</v>
+      </c>
+      <c r="F251" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>137</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>5.4988999999999999</v>
+      </c>
+      <c r="D252" t="s">
+        <v>213</v>
+      </c>
+      <c r="E252" t="s">
+        <v>213</v>
+      </c>
+      <c r="F252" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B253" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C253">
+        <v>5.5030000000000001</v>
+      </c>
+      <c r="D253" t="s">
+        <v>213</v>
+      </c>
+      <c r="E253" t="s">
+        <v>213</v>
+      </c>
+      <c r="F253" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>138</v>
       </c>
       <c r="B254" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C254">
+        <v>5.51</v>
+      </c>
+      <c r="D254">
+        <v>6.75</v>
+      </c>
+      <c r="E254">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F254" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>138</v>
       </c>
       <c r="B255" t="s">
+        <v>143</v>
+      </c>
+      <c r="C255">
+        <v>5.5209999999999999</v>
+      </c>
+      <c r="D255">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="E255">
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="F255">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>138</v>
+      </c>
+      <c r="B256" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>139</v>
-      </c>
-      <c r="B256" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>5.5190000000000001</v>
+      </c>
+      <c r="D256" t="s">
+        <v>213</v>
+      </c>
+      <c r="E256" t="s">
+        <v>213</v>
+      </c>
+      <c r="F256" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>139</v>
       </c>
       <c r="B257" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>5.7723000000000004</v>
+      </c>
+      <c r="D257">
+        <v>6.7915000000000001</v>
+      </c>
+      <c r="E257">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F257" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B258" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>5.6449999999999996</v>
+      </c>
+      <c r="D258">
+        <v>6.851</v>
+      </c>
+      <c r="E258">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="F258" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>140</v>
       </c>
       <c r="B259" t="s">
         <v>141</v>
       </c>
+      <c r="C259">
+        <v>5.84</v>
+      </c>
+      <c r="D259">
+        <v>6.8053999999999997</v>
+      </c>
+      <c r="E259">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F259" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>140</v>
+      </c>
+      <c r="B260" t="s">
+        <v>141</v>
+      </c>
+      <c r="C260">
+        <v>5.8540000000000001</v>
+      </c>
+      <c r="D260">
+        <v>6.8739999999999997</v>
+      </c>
+      <c r="E260">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F260" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeniorProject/WoodSaxonParameters.xlsx
+++ b/SeniorProject/WoodSaxonParameters.xlsx
@@ -1561,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F260" sqref="F257:F260"/>
     </sheetView>
   </sheetViews>
